--- a/doc/ue_rhicommandlist.xlsx
+++ b/doc/ue_rhicommandlist.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB15C1-2A47-4FDD-8A79-69BFDE0530E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE23A0-28DF-4FE5-8DEF-D0267870B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="FRHICommandListImmediate" sheetId="2" r:id="rId2"/>
+    <sheet name="RenderThread" sheetId="5" r:id="rId3"/>
+    <sheet name="投递" sheetId="3" r:id="rId4"/>
+    <sheet name="执行" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>RenderThread让RHI线程执行的命令列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +77,107 @@
   </si>
   <si>
     <t>内部会调用该函数，其会阻塞等待RHI线程执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FExecuteRHIThreadTask</t>
+  </si>
+  <si>
+    <t>void FRHICommandListExecutor::ExecuteInner(FRHICommandListBase&amp; CmdList)</t>
+  </si>
+  <si>
+    <t>//if we use a FDispatchRHIThreadTask, we must have it pass an event along to the FExecuteRHIThreadTask it will spawn so that fences can know which event to wait on for execution completion</t>
+  </si>
+  <si>
+    <t>//before the dispatch completes.</t>
+  </si>
+  <si>
+    <t>//if we use a FExecuteRHIThreadTask directly we pass the same event just to keep things consistent.</t>
+  </si>
+  <si>
+    <t>if (AllOutstandingTasks.Num() || RenderThreadSublistDispatchTask.GetReference())</t>
+  </si>
+  <si>
+    <t>Prereq.Append(AllOutstandingTasks);</t>
+  </si>
+  <si>
+    <t>AllOutstandingTasks.Reset();</t>
+  </si>
+  <si>
+    <t>if (RenderThreadSublistDispatchTask.GetReference())</t>
+  </si>
+  <si>
+    <t>Prereq.Add(RenderThreadSublistDispatchTask);</t>
+  </si>
+  <si>
+    <t>#if NEEDS_DEBUG_INFO_ON_PRESENT_HANG</t>
+  </si>
+  <si>
+    <t>RenderThreadSublistDispatchTaskPrereqs = Prereq;</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>RenderThreadSublistDispatchTask = TGraphTask&lt;FDispatchRHIThreadTask&gt;::CreateTask(&amp;Prereq, ENamedThreads::GetRenderThread()).ConstructAndDispatchWhenReady(SwapCmdList, bAsyncSubmit);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>check(!RenderThreadSublistDispatchTask.GetReference()); // if we are doing submits, there better not be any of these in flight since then the RHIThreadTask would get out of order.</t>
+  </si>
+  <si>
+    <t>if (RHIThreadTask.GetReference())</t>
+  </si>
+  <si>
+    <t>Prereq.Add(RHIThreadTask);</t>
+  </si>
+  <si>
+    <t>PrevRHIThreadTask = RHIThreadTask;</t>
+  </si>
+  <si>
+    <t>RHIThreadTask = TGraphTask&lt;FExecuteRHIThreadTask&gt;::CreateTask(&amp;Prereq, ENamedThreads::GetRenderThread()).ConstructAndDispatchWhenReady(SwapCmdList);</t>
+  </si>
+  <si>
+    <t>void FRHICommandListImmediate::ImmediateFlush(EImmediateFlushType::Type FlushType)</t>
+  </si>
+  <si>
+    <t>GRHICommandList.ExecuteList(*this);</t>
+  </si>
+  <si>
+    <t>void FRHICommandListExecutor::ExecuteList(FRHICommandListImmediate&amp; CmdList)</t>
+  </si>
+  <si>
+    <t>ExecuteInner(CmdList);</t>
+  </si>
+  <si>
+    <t>！！！每次内部都会把Render上面的RHICommandList交换一份给RHI，RT上继续用自己的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在RHITread挨个执行Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetImmediateCommandList</t>
+  </si>
+  <si>
+    <t>默认队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLOC_COMMAND(FRHICommandSetShaderTexture&lt;FRHIComputeShader&gt;)(Shader, TextureIndex, Texture);</t>
+  </si>
+  <si>
+    <t>#define ALLOC_COMMAND(...) new ( AllocCommand(sizeof(__VA_ARGS__), alignof(__VA_ARGS__)) ) __VA_ARGS__</t>
+  </si>
+  <si>
+    <t>现在MemStack上分配出来一块内存，然后在该内存块上new（后续的delete也不会删除该内存块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +524,7 @@
   <dimension ref="B4:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD4793-A88C-438B-9E12-A4C289181B12}">
   <dimension ref="B4:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,4 +623,257 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E00904A-A36A-4F5F-A95F-02FDF7BC11C9}">
+  <dimension ref="A4:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B20F6-AEB6-4D8E-876F-3C89AB17857E}">
+  <dimension ref="B4:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E371BDA4-EA9A-47FF-92AB-61F0FD698576}">
+  <dimension ref="B5:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>